--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_10_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_10_no_assign.xlsx
@@ -56,10 +56,13 @@
     <t>Number of clicks</t>
   </si>
   <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
+    <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>Clicks per session</t>
@@ -68,7 +71,19 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
@@ -77,79 +92,64 @@
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
     <t>Clicks on course</t>
   </si>
   <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks on campus</t>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Files downloaded</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
-  </si>
-  <si>
     <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
   </si>
 </sst>
 </file>
@@ -614,10 +614,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1033,13 +1033,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1062,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1097,16 +1097,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1158,13 +1158,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1222,13 +1222,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1712,7 +1712,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1744,10 +1744,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1771,12 +1771,12 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1968,16 +1968,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2192,16 +2192,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -2251,12 +2251,12 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2288,16 +2288,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2443,15 +2443,15 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2475,18 +2475,18 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2507,12 +2507,12 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2576,16 +2576,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2736,16 +2736,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_10_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_10_no_assign.xlsx
@@ -47,109 +47,109 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>On/off campus click ratio</t>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Largest period of inactivity (h)</t>
   </si>
   <si>
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
   </si>
   <si>
     <t>Days with no interaction</t>
   </si>
   <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
     <t>Clicks on campus</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
     <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
   </si>
 </sst>
 </file>
@@ -614,13 +614,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1065,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1094,10 +1094,10 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1158,13 +1158,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1712,7 +1712,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1744,10 +1744,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1808,7 +1808,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1963,12 +1963,12 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -2219,12 +2219,12 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2320,16 +2320,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2416,16 +2416,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2448,16 +2448,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -2507,12 +2507,12 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2544,16 +2544,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2576,16 +2576,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_10_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_10_no_assign.xlsx
@@ -47,91 +47,91 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
     <t>On/off campus click ratio</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
-    <t>Number of clicks</t>
+    <t>Clicks per session</t>
   </si>
   <si>
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Resources viewed</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Clicks on campus</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
     <t>Quizzes started</t>
   </si>
   <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Number of days</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1033,13 +1033,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1222,13 +1222,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1712,7 +1712,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1963,12 +1963,12 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2160,16 +2160,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -2219,12 +2219,12 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2512,16 +2512,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2544,16 +2544,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
